--- a/individual_case_outputs/avey/65.xlsx
+++ b/individual_case_outputs/avey/65.xlsx
@@ -542,7 +542,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>atopic dermatitis</t>
+          <t>allergic dermatitis</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -559,7 +559,7 @@
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr">
         <is>
-          <t>eczema</t>
+          <t>allergic dermatitis</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
@@ -665,7 +665,7 @@
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr">
         <is>
-          <t>allergic dermatitis</t>
+          <t>neurodermatitis</t>
         </is>
       </c>
       <c r="L4" t="inlineStr"/>
